--- a/ParameterName_ID.xlsx
+++ b/ParameterName_ID.xlsx
@@ -28,385 +28,385 @@
     <t>IVI_CLASS_PUBLIC_ATTR_BASE</t>
   </si>
   <si>
-    <t>IVIFGEN_ATTR_OUTPUT_MODE</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_REF_CLOCK_SOURCE</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_OUTPUT_ENABLED</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_OUTPUT_IMPEDANCE</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_OPERATION_MODE</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_SAMPLE_CLOCK_SOURCE</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_SAMPLE_CLOCK_OUTPUT_ENABLED</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_TERMINAL_CONFIGURATION</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_FUNC_WAVEFORM</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_FUNC_AMPLITUDE</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_FUNC_DC_OFFSET</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_FUNC_FREQUENCY</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_FUNC_START_PHASE</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_FUNC_DUTY_CYCLE_HIGH</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_ARB_WAVEFORM_HANDLE</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_ARB_GAIN</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_ARB_OFFSET</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_ARB_SAMPLE_RATE</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_MAX_NUM_WAVEFORMS</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_WAVEFORM_QUANTUM</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_MIN_WAVEFORM_SIZE</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_MAX_WAVEFORM_SIZE</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_ARB_FREQUENCY</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_ARB_SEQUENCE_HANDLE</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_MAX_NUM_SEQUENCES</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_MIN_SEQUENCE_LENGTH</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_MAX_SEQUENCE_LENGTH</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_MAX_LOOP_COUNT</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_MIN_WAVEFORM_SIZE64</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_MAX_WAVEFORM_SIZE64</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_BINARY_ALIGNMENT</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_SAMPLE_BIT_RESOLUTION</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_OUTPUT_DATA_MASK</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_SEQUENCE_DEPTH_MAX</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_TRIGGER_SOURCE</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_INTERNAL_TRIGGER_RATE</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_START_TRIGGER_DELAY</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_START_TRIGGER_SLOPE</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_START_TRIGGER_SOURCE</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_START_TRIGGER_THRESHOLD</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_STOP_TRIGGER_DELAY</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_STOP_TRIGGER_SLOPE</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_STOP_TRIGGER_SOURCE</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_STOP_TRIGGER_THRESHOLD</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_HOLD_TRIGGER_DELAY</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_HOLD_TRIGGER_SLOPE</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_HOLD_TRIGGER_SOURCE</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_HOLD_TRIGGER_THRESHOLD</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_BURST_COUNT</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_RESUME_TRIGGER_DELAY</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_RESUME_TRIGGER_SLOPE</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_RESUME_TRIGGER_SOURCE</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_RESUME_TRIGGER_THRESHOLD</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_ADVANCE_TRIGGER_DELAY</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_ADVANCE_TRIGGER_SLOPE</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_ADVANCE_TRIGGER_SOURCE</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_ADVANCE_TRIGGER_THRESHOLD</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_AM_ENABLED</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_AM_SOURCE</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_AM_INTERNAL_DEPTH</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_AM_INTERNAL_WAVEFORM</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_AM_INTERNAL_FREQUENCY</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_FM_ENABLED</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_FM_SOURCE</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_FM_INTERNAL_DEVIATION</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_FM_INTERNAL_WAVEFORM</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_FM_INTERNAL_FREQUENCY</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_DATAMARKER_AMPLITUDE</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_DATAMARKER_BIT_POSITION</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_DATAMARKER_COUNT</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_DATAMARKER_DELAY</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_DATAMARKER_DESTINATION</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_DATAMARKER_POLARITY</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_DATAMARKER_SOURCE_CHANNEL</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_SPARSEMARKER_AMPLITUDE</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_SPARSEMARKER_COUNT</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_SPARSEMARKER_DELAY</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_SPARSEMARKER_DESTINATION</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_SPARSEMARKER_POLARITY</t>
-  </si>
-  <si>
-    <t>IVIFGEN_ATTR_SPARSEMARKER_WFMHANDLE</t>
-  </si>
-  <si>
-    <t>ATTR_CALIBRATION</t>
-  </si>
-  <si>
-    <t>ATTR_CALIBARATION_ENABLED</t>
-  </si>
-  <si>
-    <t>ATTR_CALIBRATION_INFO_PACKAGE</t>
-  </si>
-  <si>
-    <t>ATTR_BURN_CALIBRATION_INFO</t>
-  </si>
-  <si>
-    <t>ATTR_SPARSEMARKER_1_POSITION</t>
-  </si>
-  <si>
-    <t>ATTR_SPARSEMARKER_1_WIDTH</t>
-  </si>
-  <si>
-    <t>ATTR_SPARSEMARKER_1_HIGH_LEVEL</t>
-  </si>
-  <si>
-    <t>ATTR_SPARSEMARKER_1_LOW_LEVEL</t>
-  </si>
-  <si>
-    <t>ATTR_SPARSEMARKER_MARKER_BIT</t>
-  </si>
-  <si>
-    <t>ATTR_SPARSEMARKER_1_DELAY</t>
-  </si>
-  <si>
-    <t>ATTR_SPARSEMARKER_2_POSITION</t>
-  </si>
-  <si>
-    <t>ATTR_SPARSEMARKER_2_WIDTH</t>
-  </si>
-  <si>
-    <t>ATTR_SPARSEMARKER_2_HIGH_LEVEL</t>
-  </si>
-  <si>
-    <t>ATTR_SPARSEMARKER_2_LOW_LEVEL</t>
-  </si>
-  <si>
-    <t>ATTR_SPARSEMARKER_2_DELAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATTR_SPARSEMARKER_2_POLARITY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATTR_SPARSEMARKER_ENABLE </t>
-  </si>
-  <si>
-    <t>ATTR_TIRGGER_MODE</t>
-  </si>
-  <si>
-    <t>ATTR_TIRGGER_SOURCE</t>
-  </si>
-  <si>
-    <t>ATTR_TIRGGER_LEVEL</t>
-  </si>
-  <si>
-    <t>ATTR_TIRGGER_EVENT_LEVEL</t>
-  </si>
-  <si>
-    <t>ATTR_TIRGGER_SLOPE_POLARITY</t>
-  </si>
-  <si>
-    <t>ATTR_TIRGGER_SMART_MIN_TIME</t>
-  </si>
-  <si>
-    <t>ATTR_TIRGGER_SMART_MAX_TIME</t>
-  </si>
-  <si>
-    <t>ATTR_TIRGGER_SMART_MIN_TIME_ENABLE</t>
-  </si>
-  <si>
-    <t>ATTR_TIRGGER_SMART_HOLDOFF_WIDTH</t>
-  </si>
-  <si>
-    <t>ATTR_TIRGGER_SMART_HOLDOFF_ENABLE</t>
-  </si>
-  <si>
-    <t>ATTR_TIRGGER_INNER_PERIOD</t>
-  </si>
-  <si>
-    <t>ATTR_TIRGGER_MANUAL</t>
-  </si>
-  <si>
-    <t>ATTR_TIRGGER_BUS_ENABLE</t>
-  </si>
-  <si>
-    <t>ATTR_TIRGGER_SMART_MAX_TIME_ENABLE</t>
-  </si>
-  <si>
-    <t>ATTR_INTERNAL_SAMPLE_RATE</t>
-  </si>
-  <si>
-    <t>ATTR_SYNC_POSITION</t>
-  </si>
-  <si>
-    <t>ATTR_SYNC_WIDTH</t>
-  </si>
-  <si>
-    <t>ATTR_SYNC_MARKER_TYPE</t>
-  </si>
-  <si>
-    <t>ATTR_SYNC_MARKER_SOURCE</t>
-  </si>
-  <si>
-    <t>ATTR_DIGIT_CLOCK_DELARY</t>
-  </si>
-  <si>
-    <t>ATTR_DIGIT_TRIGGER_STATUS</t>
-  </si>
-  <si>
-    <t>ATTR_DIGIT_TRIGGER_DEALY</t>
-  </si>
-  <si>
-    <t>ATTR_REF_CLOCK_DEALY</t>
-  </si>
-  <si>
-    <t>ATTR_SYSTEM_IO_BLOCKSIZE</t>
-  </si>
-  <si>
-    <t>ATTR_PULSE_RISE_TIME</t>
-  </si>
-  <si>
-    <t>ATTR_PULSE_FALL_TIME</t>
+    <t>OUTPUT_MODE</t>
+  </si>
+  <si>
+    <t>REF_CLOCK_SOURCE</t>
+  </si>
+  <si>
+    <t>OUTPUT_ENABLED</t>
+  </si>
+  <si>
+    <t>OUTPUT_IMPEDANCE</t>
+  </si>
+  <si>
+    <t>OPERATION_MODE</t>
+  </si>
+  <si>
+    <t>SAMPLE_CLOCK_SOURCE</t>
+  </si>
+  <si>
+    <t>SAMPLE_CLOCK_OUTPUT_ENABLED</t>
+  </si>
+  <si>
+    <t>TERMINAL_CONFIGURATION</t>
+  </si>
+  <si>
+    <t>FUNC_WAVEFORM</t>
+  </si>
+  <si>
+    <t>FUNC_AMPLITUDE</t>
+  </si>
+  <si>
+    <t>FUNC_DC_OFFSET</t>
+  </si>
+  <si>
+    <t>FUNC_FREQUENCY</t>
+  </si>
+  <si>
+    <t>FUNC_START_PHASE</t>
+  </si>
+  <si>
+    <t>FUNC_DUTY_CYCLE_HIGH</t>
+  </si>
+  <si>
+    <t>ARB_WAVEFORM_HANDLE</t>
+  </si>
+  <si>
+    <t>ARB_GAIN</t>
+  </si>
+  <si>
+    <t>ARB_OFFSET</t>
+  </si>
+  <si>
+    <t>ARB_SAMPLE_RATE</t>
+  </si>
+  <si>
+    <t>MAX_NUM_WAVEFORMS</t>
+  </si>
+  <si>
+    <t>WAVEFORM_QUANTUM</t>
+  </si>
+  <si>
+    <t>MIN_WAVEFORM_SIZE</t>
+  </si>
+  <si>
+    <t>MAX_WAVEFORM_SIZE</t>
+  </si>
+  <si>
+    <t>ARB_FREQUENCY</t>
+  </si>
+  <si>
+    <t>ARB_SEQUENCE_HANDLE</t>
+  </si>
+  <si>
+    <t>MAX_NUM_SEQUENCES</t>
+  </si>
+  <si>
+    <t>MIN_SEQUENCE_LENGTH</t>
+  </si>
+  <si>
+    <t>MAX_SEQUENCE_LENGTH</t>
+  </si>
+  <si>
+    <t>MAX_LOOP_COUNT</t>
+  </si>
+  <si>
+    <t>MIN_WAVEFORM_SIZE64</t>
+  </si>
+  <si>
+    <t>MAX_WAVEFORM_SIZE64</t>
+  </si>
+  <si>
+    <t>BINARY_ALIGNMENT</t>
+  </si>
+  <si>
+    <t>SAMPLE_BIT_RESOLUTION</t>
+  </si>
+  <si>
+    <t>OUTPUT_DATA_MASK</t>
+  </si>
+  <si>
+    <t>SEQUENCE_DEPTH_MAX</t>
+  </si>
+  <si>
+    <t>TRIGGER_SOURCE</t>
+  </si>
+  <si>
+    <t>INTERNAL_TRIGGER_RATE</t>
+  </si>
+  <si>
+    <t>START_TRIGGER_DELAY</t>
+  </si>
+  <si>
+    <t>START_TRIGGER_SLOPE</t>
+  </si>
+  <si>
+    <t>START_TRIGGER_SOURCE</t>
+  </si>
+  <si>
+    <t>START_TRIGGER_THRESHOLD</t>
+  </si>
+  <si>
+    <t>STOP_TRIGGER_DELAY</t>
+  </si>
+  <si>
+    <t>STOP_TRIGGER_SLOPE</t>
+  </si>
+  <si>
+    <t>STOP_TRIGGER_SOURCE</t>
+  </si>
+  <si>
+    <t>STOP_TRIGGER_THRESHOLD</t>
+  </si>
+  <si>
+    <t>HOLD_TRIGGER_DELAY</t>
+  </si>
+  <si>
+    <t>HOLD_TRIGGER_SLOPE</t>
+  </si>
+  <si>
+    <t>HOLD_TRIGGER_SOURCE</t>
+  </si>
+  <si>
+    <t>HOLD_TRIGGER_THRESHOLD</t>
+  </si>
+  <si>
+    <t>BURST_COUNT</t>
+  </si>
+  <si>
+    <t>RESUME_TRIGGER_DELAY</t>
+  </si>
+  <si>
+    <t>RESUME_TRIGGER_SLOPE</t>
+  </si>
+  <si>
+    <t>RESUME_TRIGGER_SOURCE</t>
+  </si>
+  <si>
+    <t>RESUME_TRIGGER_THRESHOLD</t>
+  </si>
+  <si>
+    <t>ADVANCE_TRIGGER_DELAY</t>
+  </si>
+  <si>
+    <t>ADVANCE_TRIGGER_SLOPE</t>
+  </si>
+  <si>
+    <t>ADVANCE_TRIGGER_SOURCE</t>
+  </si>
+  <si>
+    <t>ADVANCE_TRIGGER_THRESHOLD</t>
+  </si>
+  <si>
+    <t>AM_ENABLED</t>
+  </si>
+  <si>
+    <t>AM_SOURCE</t>
+  </si>
+  <si>
+    <t>AM_INTERNAL_DEPTH</t>
+  </si>
+  <si>
+    <t>AM_INTERNAL_WAVEFORM</t>
+  </si>
+  <si>
+    <t>AM_INTERNAL_FREQUENCY</t>
+  </si>
+  <si>
+    <t>FM_ENABLED</t>
+  </si>
+  <si>
+    <t>FM_SOURCE</t>
+  </si>
+  <si>
+    <t>FM_INTERNAL_DEVIATION</t>
+  </si>
+  <si>
+    <t>FM_INTERNAL_WAVEFORM</t>
+  </si>
+  <si>
+    <t>FM_INTERNAL_FREQUENCY</t>
+  </si>
+  <si>
+    <t>DATAMARKER_AMPLITUDE</t>
+  </si>
+  <si>
+    <t>DATAMARKER_BIT_POSITION</t>
+  </si>
+  <si>
+    <t>DATAMARKER_COUNT</t>
+  </si>
+  <si>
+    <t>DATAMARKER_DELAY</t>
+  </si>
+  <si>
+    <t>DATAMARKER_DESTINATION</t>
+  </si>
+  <si>
+    <t>DATAMARKER_POLARITY</t>
+  </si>
+  <si>
+    <t>DATAMARKER_SOURCE_CHANNEL</t>
+  </si>
+  <si>
+    <t>SPARSEMARKER_AMPLITUDE</t>
+  </si>
+  <si>
+    <t>SPARSEMARKER_COUNT</t>
+  </si>
+  <si>
+    <t>SPARSEMARKER_DELAY</t>
+  </si>
+  <si>
+    <t>SPARSEMARKER_DESTINATION</t>
+  </si>
+  <si>
+    <t>SPARSEMARKER_POLARITY</t>
+  </si>
+  <si>
+    <t>SPARSEMARKER_WFMHANDLE</t>
+  </si>
+  <si>
+    <t>CALIBRATION</t>
+  </si>
+  <si>
+    <t>CALIBARATION_ENABLED</t>
+  </si>
+  <si>
+    <t>CALIBRATION_INFO_PACKAGE</t>
+  </si>
+  <si>
+    <t>BURN_CALIBRATION_INFO</t>
+  </si>
+  <si>
+    <t>SPARSEMARKER_1_POSITION</t>
+  </si>
+  <si>
+    <t>SPARSEMARKER_1_WIDTH</t>
+  </si>
+  <si>
+    <t>SPARSEMARKER_1_HIGH_LEVEL</t>
+  </si>
+  <si>
+    <t>SPARSEMARKER_1_LOW_LEVEL</t>
+  </si>
+  <si>
+    <t>SPARSEMARKER_MARKER_BIT</t>
+  </si>
+  <si>
+    <t>SPARSEMARKER_1_DELAY</t>
+  </si>
+  <si>
+    <t>SPARSEMARKER_2_POSITION</t>
+  </si>
+  <si>
+    <t>SPARSEMARKER_2_WIDTH</t>
+  </si>
+  <si>
+    <t>SPARSEMARKER_2_HIGH_LEVEL</t>
+  </si>
+  <si>
+    <t>SPARSEMARKER_2_LOW_LEVEL</t>
+  </si>
+  <si>
+    <t>SPARSEMARKER_2_DELAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPARSEMARKER_2_POLARITY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPARSEMARKER_ENABLE </t>
+  </si>
+  <si>
+    <t>TIRGGER_MODE</t>
+  </si>
+  <si>
+    <t>TIRGGER_SOURCE</t>
+  </si>
+  <si>
+    <t>TIRGGER_LEVEL</t>
+  </si>
+  <si>
+    <t>TIRGGER_EVENT_LEVEL</t>
+  </si>
+  <si>
+    <t>TIRGGER_SLOPE_POLARITY</t>
+  </si>
+  <si>
+    <t>TIRGGER_SMART_MIN_TIME</t>
+  </si>
+  <si>
+    <t>TIRGGER_SMART_MAX_TIME</t>
+  </si>
+  <si>
+    <t>TIRGGER_SMART_MIN_TIME_ENABLE</t>
+  </si>
+  <si>
+    <t>TIRGGER_SMART_HOLDOFF_WIDTH</t>
+  </si>
+  <si>
+    <t>TIRGGER_SMART_HOLDOFF_ENABLE</t>
+  </si>
+  <si>
+    <t>TIRGGER_INNER_PERIOD</t>
+  </si>
+  <si>
+    <t>TIRGGER_MANUAL</t>
+  </si>
+  <si>
+    <t>TIRGGER_BUS_ENABLE</t>
+  </si>
+  <si>
+    <t>TIRGGER_SMART_MAX_TIME_ENABLE</t>
+  </si>
+  <si>
+    <t>INTERNAL_SAMPLE_RATE</t>
+  </si>
+  <si>
+    <t>SYNC_POSITION</t>
+  </si>
+  <si>
+    <t>SYNC_WIDTH</t>
+  </si>
+  <si>
+    <t>SYNC_MARKER_TYPE</t>
+  </si>
+  <si>
+    <t>SYNC_MARKER_SOURCE</t>
+  </si>
+  <si>
+    <t>DIGIT_CLOCK_DELARY</t>
+  </si>
+  <si>
+    <t>DIGIT_TRIGGER_STATUS</t>
+  </si>
+  <si>
+    <t>DIGIT_TRIGGER_DEALY</t>
+  </si>
+  <si>
+    <t>REF_CLOCK_DEALY</t>
+  </si>
+  <si>
+    <t>SYSTEM_IO_BLOCKSIZE</t>
+  </si>
+  <si>
+    <t>PULSE_RISE_TIME</t>
+  </si>
+  <si>
+    <t>PULSE_FALL_TIME</t>
   </si>
   <si>
     <t>注：在源文件中还存在相同ID的参数：梯形波 _ATTR_RISE_TIME，1204000</t>
   </si>
   <si>
-    <t>失真度</t>
-  </si>
-  <si>
-    <t>梯形波 _ATTR_HOLD_TIME，1204001</t>
-  </si>
-  <si>
-    <t>信号模式</t>
+    <t>梯形波上升时间</t>
+  </si>
+  <si>
+    <t>梯形波 _ATTR_HOLD_TIME，1204001（已修正）</t>
+  </si>
+  <si>
+    <t>梯形波保持时间</t>
   </si>
   <si>
     <t>二次谐波比例</t>
@@ -459,10 +459,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -494,23 +494,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -530,9 +516,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,22 +578,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -576,54 +623,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -645,13 +645,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,7 +693,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,25 +741,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,25 +753,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,7 +783,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,19 +795,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,61 +807,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,6 +836,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -854,32 +878,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -903,36 +917,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -944,10 +944,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -956,16 +956,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -974,115 +974,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1423,8 +1423,8 @@
   <sheetPr/>
   <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="E136" sqref="E136"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
